--- a/downloaded_files/MCNS202_Tutorial-35633.xlsx
+++ b/downloaded_files/MCNS202_Tutorial-35633.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed essam ahmed mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mahmoud Mohammed Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>2240008</x:t>
@@ -236,7 +245,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -536,7 +545,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T11"/>
+  <x:dimension ref="A1:T12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -546,7 +555,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="26.550625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="40.020625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -723,7 +732,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45919.4327795949</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -755,7 +764,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -787,7 +796,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6651370023</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -819,7 +828,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.6651370023</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -851,7 +860,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -883,7 +892,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6752527778</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -915,7 +924,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4368017014</x:v>
+        <x:v>45907.6752527778</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -932,6 +941,38 @@
       <x:c r="R11" s="2" t="s"/>
       <x:c r="S11" s="2" t="s"/>
       <x:c r="T11" s="2" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:20">
+      <x:c r="A12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E12" s="3">
+        <x:v>45909.4368017014</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s"/>
+      <x:c r="G12" s="2" t="s"/>
+      <x:c r="H12" s="2" t="s"/>
+      <x:c r="I12" s="2" t="s"/>
+      <x:c r="J12" s="2" t="s"/>
+      <x:c r="K12" s="2" t="s"/>
+      <x:c r="L12" s="2" t="s"/>
+      <x:c r="M12" s="2" t="s"/>
+      <x:c r="N12" s="2" t="s"/>
+      <x:c r="O12" s="2" t="s"/>
+      <x:c r="P12" s="2" t="s"/>
+      <x:c r="Q12" s="2" t="s"/>
+      <x:c r="R12" s="2" t="s"/>
+      <x:c r="S12" s="2" t="s"/>
+      <x:c r="T12" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS202_Tutorial-35633.xlsx
+++ b/downloaded_files/MCNS202_Tutorial-35633.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Khaled Ali Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد عاطف مرعى عبد النعيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Atef Merhy Abdel Naim</x:t>
   </x:si>
   <x:si>
     <x:t>1240010</x:t>
@@ -245,7 +254,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -545,7 +554,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T12"/>
+  <x:dimension ref="A1:T13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -700,7 +709,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45908.4152590625</x:v>
+        <x:v>45919.9982841088</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -732,7 +741,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45919.4327795949</x:v>
+        <x:v>45908.4152590625</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -764,7 +773,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45919.4327795949</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -796,7 +805,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -828,7 +837,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6651370023</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -860,7 +869,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.6651370023</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -892,7 +901,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -924,7 +933,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6752527778</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -956,7 +965,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4368017014</x:v>
+        <x:v>45907.6752527778</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -973,6 +982,38 @@
       <x:c r="R12" s="2" t="s"/>
       <x:c r="S12" s="2" t="s"/>
       <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45909.4368017014</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS202_Tutorial-35633.xlsx
+++ b/downloaded_files/MCNS202_Tutorial-35633.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Ali eldin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على عبدالرحمن محمد ابراهيم حمزه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Abdul Rahman Mohamed Ibrahim Hamza</x:t>
   </x:si>
   <x:si>
     <x:t>4250182</x:t>
@@ -254,7 +263,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -554,7 +563,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T13"/>
+  <x:dimension ref="A1:T14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -562,7 +571,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="26.550625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="26.260625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="40.020625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -837,7 +846,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45920.7894414352</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -869,7 +878,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6651370023</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -901,7 +910,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.6651370023</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -933,7 +942,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -965,7 +974,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6752527778</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -997,7 +1006,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4368017014</x:v>
+        <x:v>45907.6752527778</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1014,6 +1023,38 @@
       <x:c r="R13" s="2" t="s"/>
       <x:c r="S13" s="2" t="s"/>
       <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45909.4368017014</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS202_Tutorial-35633.xlsx
+++ b/downloaded_files/MCNS202_Tutorial-35633.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -139,6 +139,15 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Mohamed Rami Mahmoud Ghaly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد محمد محمد عيسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yuossef Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1230329</x:t>
@@ -263,7 +272,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -563,7 +572,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T14"/>
+  <x:dimension ref="A1:T15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1038,7 +1047,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4368017014</x:v>
+        <x:v>45921.9304752315</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1055,6 +1064,38 @@
       <x:c r="R14" s="2" t="s"/>
       <x:c r="S14" s="2" t="s"/>
       <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45909.4368017014</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS202_Tutorial-35633.xlsx
+++ b/downloaded_files/MCNS202_Tutorial-35633.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,6 +78,15 @@
     <x:t>Ahmed Mahmoud Mohammed Mohammed</x:t>
   </x:si>
   <x:si>
+    <x:t>1240018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد خليفة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
+  </x:si>
+  <x:si>
     <x:t>2240008</x:t>
   </x:si>
   <x:si>
@@ -111,7 +120,7 @@
     <x:t>كريم سامح صبري محمد عبد الحليم</x:t>
   </x:si>
   <x:si>
-    <x:t>kareem sameh sabry mohamed</x:t>
+    <x:t>Karim Sameh Sabry Mohamed Abdel Halim</x:t>
   </x:si>
   <x:si>
     <x:t>1230139</x:t>
@@ -272,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -572,7 +581,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T15"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -581,7 +590,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="26.260625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="40.020625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="42.140625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -823,7 +832,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45925.3152131597</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -855,7 +864,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45920.7894414352</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -887,7 +896,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45920.7894414352</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -919,7 +928,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6651370023</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -951,7 +960,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.6651370023</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -983,7 +992,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1015,7 +1024,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6752527778</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1047,7 +1056,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45921.9304752315</x:v>
+        <x:v>45907.6752527778</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1079,7 +1088,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4368017014</x:v>
+        <x:v>45921.9304752315</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1096,6 +1105,38 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45909.4368017014</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS202_Tutorial-35633.xlsx
+++ b/downloaded_files/MCNS202_Tutorial-35633.xlsx
@@ -78,13 +78,22 @@
     <x:t>Ahmed Mahmoud Mohammed Mohammed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمود محمد محمد خليفة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
+    <x:t>1240026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>افنان خالد محمد احمد على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Afnan Khaled Mohamed Ahmed Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>البراء اشرف سيد عبدالموجود حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albraa Ashraf Sayed Abdelmawgoud Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>2240008</x:t>
@@ -139,15 +148,6 @@
   </x:si>
   <x:si>
     <x:t>marcos thabet norus thabet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230259</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى محمد رامى محمود غالى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Mohamed Rami Mahmoud Ghaly</x:t>
   </x:si>
   <x:si>
     <x:t>4250200</x:t>
@@ -589,8 +589,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="26.260625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="42.140625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="25.780625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.020625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -832,7 +832,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45925.3152131597</x:v>
+        <x:v>45927.6346006597</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -864,7 +864,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45927.6035851852</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -896,7 +896,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45920.7894414352</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -928,7 +928,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45920.7894414352</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -960,7 +960,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6651370023</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -992,7 +992,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.6651370023</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1024,7 +1024,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1056,7 +1056,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6752527778</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>

--- a/downloaded_files/MCNS202_Tutorial-35633.xlsx
+++ b/downloaded_files/MCNS202_Tutorial-35633.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mahmoud Mohammed Mohammed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد خليفة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
   </x:si>
   <x:si>
     <x:t>1240026</x:t>
@@ -281,7 +290,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -581,7 +590,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -590,7 +599,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="25.780625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="40.020625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="42.140625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -832,7 +841,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.6346006597</x:v>
+        <x:v>45928.7044315972</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -864,7 +873,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.6035851852</x:v>
+        <x:v>45927.6346006597</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -896,7 +905,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45927.6035851852</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -928,7 +937,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45920.7894414352</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -960,7 +969,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45920.7894414352</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -992,7 +1001,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6651370023</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1024,7 +1033,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.6651370023</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1056,7 +1065,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1088,7 +1097,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45921.9304752315</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1120,7 +1129,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4368017014</x:v>
+        <x:v>45921.9304752315</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1137,6 +1146,38 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45909.4368017014</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS202_Tutorial-35633.xlsx
+++ b/downloaded_files/MCNS202_Tutorial-35633.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,15 +76,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mahmoud Mohammed Mohammed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمود محمد محمد خليفة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
   </x:si>
   <x:si>
     <x:t>1240026</x:t>
@@ -290,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -590,7 +581,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T17"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -599,7 +590,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="25.780625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="42.140625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.020625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -841,7 +832,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45928.7044315972</x:v>
+        <x:v>45927.6346006597</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -873,7 +864,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.6346006597</x:v>
+        <x:v>45927.6035851852</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -905,7 +896,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.6035851852</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -937,7 +928,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45920.7894414352</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -969,7 +960,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45920.7894414352</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1001,7 +992,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45907.6651370023</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1033,7 +1024,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6651370023</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1065,7 +1056,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1097,7 +1088,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45921.9304752315</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1129,7 +1120,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45921.9304752315</x:v>
+        <x:v>45909.4368017014</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1146,38 +1137,6 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:20">
-      <x:c r="A17" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E17" s="3">
-        <x:v>45909.4368017014</x:v>
-      </x:c>
-      <x:c r="F17" s="2" t="s"/>
-      <x:c r="G17" s="2" t="s"/>
-      <x:c r="H17" s="2" t="s"/>
-      <x:c r="I17" s="2" t="s"/>
-      <x:c r="J17" s="2" t="s"/>
-      <x:c r="K17" s="2" t="s"/>
-      <x:c r="L17" s="2" t="s"/>
-      <x:c r="M17" s="2" t="s"/>
-      <x:c r="N17" s="2" t="s"/>
-      <x:c r="O17" s="2" t="s"/>
-      <x:c r="P17" s="2" t="s"/>
-      <x:c r="Q17" s="2" t="s"/>
-      <x:c r="R17" s="2" t="s"/>
-      <x:c r="S17" s="2" t="s"/>
-      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
